--- a/biology/Zoologie/DogMan_(film,_2023)/DogMan_(film,_2023).xlsx
+++ b/biology/Zoologie/DogMan_(film,_2023)/DogMan_(film,_2023).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">DogMan est un drame psychologique français réalisé par Luc Besson, sorti en 2023.
 Il est présenté en avant-première à la Mostra de Venise 2023.
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Incarcéré après son arrestation, Douglas Munrow explique son parcours à une psychiatre nommée Evelyn. Enfant, il a été abusé par un père violent qui l'a ensuite jeté aux chiens. Mais au lieu de l'attaquer, ces derniers l'ont protégé et ils sont devenus ses alliés. Il est par ailleurs handicapé par une balle reçue dans le dos. Douglas s'échappe alors et grandit auprès de ces chiens, devenus ses seuls amis. Devenu adulte, encore traumatisé et menant une vie de marginal, Douglas a sombré peu à peu dans une folie meurtrière[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incarcéré après son arrestation, Douglas Munrow explique son parcours à une psychiatre nommée Evelyn. Enfant, il a été abusé par un père violent qui l'a ensuite jeté aux chiens. Mais au lieu de l'attaquer, ces derniers l'ont protégé et ils sont devenus ses alliés. Il est par ailleurs handicapé par une balle reçue dans le dos. Douglas s'échappe alors et grandit auprès de ces chiens, devenus ses seuls amis. Devenu adulte, encore traumatisé et menant une vie de marginal, Douglas a sombré peu à peu dans une folie meurtrière,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et francophone : DogMan
@@ -559,11 +575,11 @@
 Société de distribution : Apollo Films (France)
 Pays de production :  France
 Langue originale : anglais
-Budget : 20 millions d'euros [3]
+Budget : 20 millions d'euros 
 Format : couleur - 2.39:1
 Genre : drame, thriller
 Durée : 113 minutes
-Dates de sortie[4] :
+Dates de sortie :
 Italie : 31 août 2023 (Mostra de Venise)
 France : 3 septembre 2023 (Festival de Deauville) ; 27 septembre 2023 (sortie nationale)</t>
         </is>
@@ -593,10 +609,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-Caleb Landry Jones (VF : Donald Reignoux)[5],[6]: Douglas Munrow[7]
+Caleb Landry Jones (VF : Donald Reignoux),: Douglas Munrow
 Lincoln Powell (VF : Donald Reignoux) : Douglas Munrow adolescent
 Jonica T. Gibbs (VF : Corinne Wellong) : Evelyn
 Christopher Denham (VF : Anatole de Bodinat) : Ackerman
@@ -614,10 +632,10 @@
 Kyran Peet (VF : Yoann Sover) : Madonna, drag-queen
 Kam Hugh : elle-même, drag-queen
 Marisa Berenson : l'aristocrate
-Clément Penhoat (VF : lui-même) : un homme de main d'El Verdugo[8]
-Hedi Bouchenafa : un homme de main d'El Verdugo[9]
+Clément Penhoat (VF : lui-même) : un homme de main d'El Verdugo
+Hedi Bouchenafa : un homme de main d'El Verdugo
 Corinne Delacour : la mère d'Evelyn
- Source et légende : version française (VF) sur RS Doublage[10] et carton du doublage français.</t>
+ Source et légende : version française (VF) sur RS Doublage et carton du doublage français.</t>
         </is>
       </c>
     </row>
@@ -647,15 +665,90 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Genèse et développement
-En janvier 2022, il est annoncé que Luc Besson va faire son retour au cinéma, quatre ans après Anna, sorti en 2019[11]. Une première bande-annonce est diffusée lors d'un événement privé au Grand Rex le 24 janvier 2023, et s'ouvre sur une citation d'Alphonse de Lamartine : « Partout où il y a un malheureux, Dieu envoie un chien[2]. »
-L'acteur et chanteur américain Caleb Landry Jones obtient le rôle principal[12]. Selon Variety, sa performance « intense » et « démesurée » devrait encore amplifier la reconnaissance internationale dont il jouit depuis son prix d'interprétation masculine au Festival de Cannes 2021[2].
-La presse évoque un film aux tonalités sombres, plus proche des premiers longs-métrages du réalisateur, centré sur un personnage à la marge de la société, comme les principaux protagonistes de Léon ou de Subway[2],[13].
-Tournage
-Le tournage commence en mai 2022 au château de Saint-Germain-Lès-Corbeil et se poursuit en juin 2022 à Newark dans le New Jersey[14]. Les prises de vues ont également eu lieu en France, notamment dans les studios Dark Matters situé à Tigery (Essonne) et spécialisés dans la production virtuelle[15]. Le film est tourné en format large anamorphosé[2].
-Musique
-La musique du film est composée par Éric Serra[16], pour sa seizième collaboration avec Luc Besson[17]. Le musicien commence à travailler sur le film en octobre 2022[18].
-La tracklist comporte[19] :
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 2022, il est annoncé que Luc Besson va faire son retour au cinéma, quatre ans après Anna, sorti en 2019. Une première bande-annonce est diffusée lors d'un événement privé au Grand Rex le 24 janvier 2023, et s'ouvre sur une citation d'Alphonse de Lamartine : « Partout où il y a un malheureux, Dieu envoie un chien. »
+L'acteur et chanteur américain Caleb Landry Jones obtient le rôle principal. Selon Variety, sa performance « intense » et « démesurée » devrait encore amplifier la reconnaissance internationale dont il jouit depuis son prix d'interprétation masculine au Festival de Cannes 2021.
+La presse évoque un film aux tonalités sombres, plus proche des premiers longs-métrages du réalisateur, centré sur un personnage à la marge de la société, comme les principaux protagonistes de Léon ou de Subway,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DogMan_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DogMan_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage commence en mai 2022 au château de Saint-Germain-Lès-Corbeil et se poursuit en juin 2022 à Newark dans le New Jersey. Les prises de vues ont également eu lieu en France, notamment dans les studios Dark Matters situé à Tigery (Essonne) et spécialisés dans la production virtuelle. Le film est tourné en format large anamorphosé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DogMan_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DogMan_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La musique du film est composée par Éric Serra, pour sa seizième collaboration avec Luc Besson. Le musicien commence à travailler sur le film en octobre 2022.
+La tracklist comporte :
 1. Arresting Marylin (01:43)
 2. Not Sick Just Tired (05:04)
 3. Starving The Dogs (01:19)
@@ -694,79 +787,159 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DogMan_(film,_2023)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/DogMan_(film,_2023)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DogMan_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DogMan_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sortie et accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Festivals et sortie
-Le film devait initialement sortir en France le 19 avril 2023. En juillet 2023, il est annoncé que le film sera en compétition officielle à la Mostra de Venise 2023[20]. Il est ensuite projeté hors compétition au festival du cinéma américain de Deauville 2023.
-Critique
-Le film reçoit un accueil mitigé de la part de la presse dans le monde. Le site anglophone Rotten Tomatoes donne une moyenne de 56% d’avis positif d’après l’interprétation de 18 critiques[22]. Sur Metacritic, qui utilise une moyenne pondérée, le film obtient une note de 37⁄100 pour 11 critiques[21].
-En France, le site Allociné propose une moyenne de 2,9⁄5, d'après l'interprétation de 26 critiques de presse et une note de 4⁄5 sur la critique spectateurs[23].
-Box-office
-France
-Le film sort en salle le 27 septembre 2023. Lors de sa première journée d’exploitation le film comptabilise 28 387 entrées, avant-première comprise[26].
-Une semaine après sa sortie, le film attire près de 140 000 spectateurs et atteint la troisième place du box-office. Il s’agit par ailleurs du second pire démarrage de la carrière du réalisateur[27].
-Le film est un échec dans le territoire national, il peine à atteindre seulement 280 000 entrées après un mois d’exploitation[28].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Festivals et sortie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film devait initialement sortir en France le 19 avril 2023. En juillet 2023, il est annoncé que le film sera en compétition officielle à la Mostra de Venise 2023. Il est ensuite projeté hors compétition au festival du cinéma américain de Deauville 2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DogMan_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DogMan_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sortie et accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit un accueil mitigé de la part de la presse dans le monde. Le site anglophone Rotten Tomatoes donne une moyenne de 56% d’avis positif d’après l’interprétation de 18 critiques. Sur Metacritic, qui utilise une moyenne pondérée, le film obtient une note de 37⁄100 pour 11 critiques.
+En France, le site Allociné propose une moyenne de 2,9⁄5, d'après l'interprétation de 26 critiques de presse et une note de 4⁄5 sur la critique spectateurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DogMan_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DogMan_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sortie et accueil</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">France
+Le film sort en salle le 27 septembre 2023. Lors de sa première journée d’exploitation le film comptabilise 28 387 entrées, avant-première comprise.
+Une semaine après sa sortie, le film attire près de 140 000 spectateurs et atteint la troisième place du box-office. Il s’agit par ailleurs du second pire démarrage de la carrière du réalisateur.
+Le film est un échec dans le territoire national, il peine à atteindre seulement 280 000 entrées après un mois d’exploitation.
 Hors de France
-Le film sort simultanément dans les salles au Maroc, Tunisie, Pays-Bas, Hongrie et Suisse Romande avant une sortie plus large dans une trentaine de pays à travers le monde, d’octobre 2023 à février 2024[29].
-Après des petits démarrages dans plusieurs pays et notamment en Croatie, Slovénie, Pays-Bas et Allemagne, c’est finalement en Italie où le film fait un bon démarrage en atteignant la troisième place au box-office national italien avec un cumul de plus de 66 000 entrées lors de sa première semaine d’exploitation[30].
+Le film sort simultanément dans les salles au Maroc, Tunisie, Pays-Bas, Hongrie et Suisse Romande avant une sortie plus large dans une trentaine de pays à travers le monde, d’octobre 2023 à février 2024.
+Après des petits démarrages dans plusieurs pays et notamment en Croatie, Slovénie, Pays-Bas et Allemagne, c’est finalement en Italie où le film fait un bon démarrage en atteignant la troisième place au box-office national italien avec un cumul de plus de 66 000 entrées lors de sa première semaine d’exploitation.
 Le film se maintient toujours dans le top 10 Italien lors de sa deuxième semaine et parvient à atteindre 135 000 entrées en 15 jours.
-Dans le même temps, le cumule hors France dépasse les 150 000 entrées avec pour principal marché l’Italie, L’Allemagne (25 000 entrées) et les Pays-Bas[31].
+Dans le même temps, le cumule hors France dépasse les 150 000 entrées avec pour principal marché l’Italie, L’Allemagne (25 000 entrées) et les Pays-Bas.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DogMan_(film,_2023)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/DogMan_(film,_2023)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DogMan_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DogMan_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sélection
-Mostra de Venise 2023 : en compétition officielle
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mostra de Venise 2023 : en compétition officielle
 Festival de Deauville 2023 : hors-compétition
  Festival international du film de Rio de Janeiro 2023 : Sélection de films français
  Busan International Film Festival 2023 : Open Cinema</t>
